--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>4.66502849849789</v>
+        <v>4.923952922232446</v>
       </c>
       <c r="R2">
-        <v>41.985256486481</v>
+        <v>44.315576300092</v>
       </c>
       <c r="S2">
-        <v>0.07698300367521853</v>
+        <v>0.08189467860228684</v>
       </c>
       <c r="T2">
-        <v>0.0769830036752185</v>
+        <v>0.08189467860228684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.6043668157768889</v>
+        <v>0.7242170645671112</v>
       </c>
       <c r="R3">
-        <v>5.439301341992</v>
+        <v>6.517953581104</v>
       </c>
       <c r="S3">
-        <v>0.009973352320379915</v>
+        <v>0.01204510373631378</v>
       </c>
       <c r="T3">
-        <v>0.009973352320379913</v>
+        <v>0.01204510373631378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -661,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.3824455189195556</v>
+        <v>0.5106065494793334</v>
       </c>
       <c r="R4">
-        <v>3.442009670276001</v>
+        <v>4.595458945314</v>
       </c>
       <c r="S4">
-        <v>0.006311173618346617</v>
+        <v>0.008492355617988721</v>
       </c>
       <c r="T4">
-        <v>0.006311173618346615</v>
+        <v>0.008492355617988721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.418580000000001</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>22.25574</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.777698766101638</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.777698766101638</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>38.89871343358001</v>
+        <v>0.1190011906682222</v>
       </c>
       <c r="R5">
-        <v>350.08842090222</v>
+        <v>1.071010716014</v>
       </c>
       <c r="S5">
-        <v>0.6419124342290267</v>
+        <v>0.001979215564604754</v>
       </c>
       <c r="T5">
-        <v>0.6419124342290267</v>
+        <v>0.001979215564604754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +794,40 @@
         <v>22.25574</v>
       </c>
       <c r="I6">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J6">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>5.03943150256</v>
+        <v>34.26310244188001</v>
       </c>
       <c r="R6">
-        <v>45.35488352304</v>
+        <v>308.3679219769201</v>
       </c>
       <c r="S6">
-        <v>0.08316145850073717</v>
+        <v>0.5698603960500116</v>
       </c>
       <c r="T6">
-        <v>0.08316145850073717</v>
+        <v>0.5698603960500116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,54 +856,54 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4298626666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N7">
-        <v>1.289588</v>
+        <v>2.037896</v>
       </c>
       <c r="O7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q7">
-        <v>3.188970581680001</v>
+        <v>5.03943150256</v>
       </c>
       <c r="R7">
-        <v>28.70073523512001</v>
+        <v>45.35488352304</v>
       </c>
       <c r="S7">
-        <v>0.05262487337187407</v>
+        <v>0.08381530647398586</v>
       </c>
       <c r="T7">
-        <v>0.05262487337187407</v>
+        <v>0.08381530647398588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.298413</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.895239</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.031282997809377</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.03128299780937701</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243417666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N8">
-        <v>15.730253</v>
+        <v>1.436811</v>
       </c>
       <c r="O8">
-        <v>0.8253998362974575</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P8">
-        <v>0.8253998362974574</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q8">
-        <v>1.564703996163</v>
+        <v>3.553032449460001</v>
       </c>
       <c r="R8">
-        <v>14.082335965467</v>
+        <v>31.97729204514</v>
       </c>
       <c r="S8">
-        <v>0.0258209812707535</v>
+        <v>0.05909367029043392</v>
       </c>
       <c r="T8">
-        <v>0.0258209812707535</v>
+        <v>0.05909367029043393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.298413</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.895239</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.031282997809377</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.03128299780937701</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6792986666666666</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N9">
-        <v>2.037896</v>
+        <v>0.334861</v>
       </c>
       <c r="O9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q9">
-        <v>0.202711553016</v>
+        <v>0.8280643724600002</v>
       </c>
       <c r="R9">
-        <v>1.824403977144</v>
+        <v>7.452579352140002</v>
       </c>
       <c r="S9">
-        <v>0.003345176612718401</v>
+        <v>0.01377228148108902</v>
       </c>
       <c r="T9">
-        <v>0.003345176612718402</v>
+        <v>0.01377228148108902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H10">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I10">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J10">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1054,710 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4298626666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N10">
-        <v>1.289588</v>
+        <v>13.855658</v>
       </c>
       <c r="O10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q10">
-        <v>0.128276607948</v>
+        <v>2.002804573548889</v>
       </c>
       <c r="R10">
-        <v>1.154489471532</v>
+        <v>18.02524116194</v>
       </c>
       <c r="S10">
-        <v>0.002116839925905099</v>
+        <v>0.03331043969031547</v>
       </c>
       <c r="T10">
-        <v>0.0021168399259051</v>
+        <v>0.03331043969031547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H11">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I11">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J11">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>5.243417666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N11">
-        <v>15.730253</v>
+        <v>2.037896</v>
       </c>
       <c r="O11">
-        <v>0.8253998362974575</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P11">
-        <v>0.8253998362974574</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q11">
-        <v>4.889266750624667</v>
+        <v>0.2945733381422223</v>
       </c>
       <c r="R11">
-        <v>44.003400755622</v>
+        <v>2.65116004328</v>
       </c>
       <c r="S11">
-        <v>0.0806834171224587</v>
+        <v>0.004899313464805144</v>
       </c>
       <c r="T11">
-        <v>0.0806834171224587</v>
+        <v>0.004899313464805145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6792986666666666</v>
+        <v>0.478937</v>
       </c>
       <c r="N12">
-        <v>2.037896</v>
+        <v>1.436811</v>
       </c>
       <c r="O12">
-        <v>0.1069327381315001</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P12">
-        <v>0.1069327381315001</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q12">
-        <v>0.6334174761226666</v>
+        <v>0.2076878371366667</v>
       </c>
       <c r="R12">
-        <v>5.700757285104</v>
+        <v>1.86919053423</v>
       </c>
       <c r="S12">
-        <v>0.01045275069766456</v>
+        <v>0.003454242747755599</v>
       </c>
       <c r="T12">
-        <v>0.01045275069766456</v>
+        <v>0.0034542427477556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4336433333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.30093</v>
+      </c>
+      <c r="I13">
+        <v>0.04246903649677213</v>
+      </c>
+      <c r="J13">
+        <v>0.04246903649677213</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.334861</v>
+      </c>
+      <c r="O13">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P13">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q13">
+        <v>0.04840341341444445</v>
+      </c>
+      <c r="R13">
+        <v>0.4356307207300001</v>
+      </c>
+      <c r="S13">
+        <v>0.0008050405938959179</v>
+      </c>
+      <c r="T13">
+        <v>0.000805040593895918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.951285</v>
+      </c>
+      <c r="H14">
+        <v>2.853855</v>
+      </c>
+      <c r="I14">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J14">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.855658</v>
+      </c>
+      <c r="O14">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P14">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q14">
+        <v>4.39355987351</v>
+      </c>
+      <c r="R14">
+        <v>39.54203886159</v>
+      </c>
+      <c r="S14">
+        <v>0.07307323596381453</v>
+      </c>
+      <c r="T14">
+        <v>0.07307323596381453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.951285</v>
+      </c>
+      <c r="H15">
+        <v>2.853855</v>
+      </c>
+      <c r="I15">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J15">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.037896</v>
+      </c>
+      <c r="O15">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P15">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q15">
+        <v>0.64620663212</v>
+      </c>
+      <c r="R15">
+        <v>5.815859689080001</v>
+      </c>
+      <c r="S15">
+        <v>0.01074764224677844</v>
+      </c>
+      <c r="T15">
+        <v>0.01074764224677845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.951285</v>
+      </c>
+      <c r="H16">
+        <v>2.853855</v>
+      </c>
+      <c r="I16">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J16">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.478937</v>
+      </c>
+      <c r="N16">
+        <v>1.436811</v>
+      </c>
+      <c r="O16">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P16">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q16">
+        <v>0.455605584045</v>
+      </c>
+      <c r="R16">
+        <v>4.100450256405001</v>
+      </c>
+      <c r="S16">
+        <v>0.00757758521741835</v>
+      </c>
+      <c r="T16">
+        <v>0.007577585217418351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.951285</v>
+      </c>
+      <c r="H17">
+        <v>2.853855</v>
+      </c>
+      <c r="I17">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J17">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.334861</v>
+      </c>
+      <c r="O17">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P17">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q17">
+        <v>0.106182748795</v>
+      </c>
+      <c r="R17">
+        <v>0.9556447391550001</v>
+      </c>
+      <c r="S17">
+        <v>0.001766020557672461</v>
+      </c>
+      <c r="T17">
+        <v>0.001766020557672461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.023536</v>
+      </c>
+      <c r="I18">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J18">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.855658</v>
+      </c>
+      <c r="O18">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P18">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q18">
+        <v>1.575751640743111</v>
+      </c>
+      <c r="R18">
+        <v>14.181764766688</v>
+      </c>
+      <c r="S18">
+        <v>0.02620773923183163</v>
+      </c>
+      <c r="T18">
+        <v>0.02620773923183163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.023536</v>
+      </c>
+      <c r="I19">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J19">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.037896</v>
+      </c>
+      <c r="O19">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P19">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q19">
+        <v>0.2317622133617778</v>
+      </c>
+      <c r="R19">
+        <v>2.085859920256</v>
+      </c>
+      <c r="S19">
+        <v>0.003854645297220294</v>
+      </c>
+      <c r="T19">
+        <v>0.003854645297220295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.932458</v>
-      </c>
-      <c r="H13">
-        <v>2.797374</v>
-      </c>
-      <c r="I13">
-        <v>0.09775070647503985</v>
-      </c>
-      <c r="J13">
-        <v>0.09775070647503985</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4298626666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.289588</v>
-      </c>
-      <c r="O13">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="P13">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="Q13">
-        <v>0.4008288824346667</v>
-      </c>
-      <c r="R13">
-        <v>3.607459941912</v>
-      </c>
-      <c r="S13">
-        <v>0.006614538654916567</v>
-      </c>
-      <c r="T13">
-        <v>0.006614538654916567</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.023536</v>
+      </c>
+      <c r="I20">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J20">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.478937</v>
+      </c>
+      <c r="N20">
+        <v>1.436811</v>
+      </c>
+      <c r="O20">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P20">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q20">
+        <v>0.1634030870773333</v>
+      </c>
+      <c r="R20">
+        <v>1.470627783696</v>
+      </c>
+      <c r="S20">
+        <v>0.002717703339201013</v>
+      </c>
+      <c r="T20">
+        <v>0.002717703339201014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.023536</v>
+      </c>
+      <c r="I21">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J21">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.334861</v>
+      </c>
+      <c r="O21">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P21">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q21">
+        <v>0.03808247649955556</v>
+      </c>
+      <c r="R21">
+        <v>0.342742288496</v>
+      </c>
+      <c r="S21">
+        <v>0.0006333838325765815</v>
+      </c>
+      <c r="T21">
+        <v>0.0006333838325765816</v>
       </c>
     </row>
   </sheetData>
